--- a/ExcelFile/Employee.xlsx
+++ b/ExcelFile/Employee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12240"/>
+    <workbookView windowWidth="21000" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>fname</t>
   </si>
@@ -23,31 +23,52 @@
     <t>lname</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>z</t>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>Rony</t>
+  </si>
+  <si>
+    <t>Rahman</t>
+  </si>
+  <si>
+    <t>rony@gmail.com</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
+  <si>
+    <t>Ken@gmail.com</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Hetal</t>
+  </si>
+  <si>
+    <t>Gajjar</t>
+  </si>
+  <si>
+    <t>Hetal@gmail.com</t>
+  </si>
+  <si>
+    <t>Melborne</t>
   </si>
 </sst>
 </file>
@@ -55,9 +76,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -69,6 +90,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -79,6 +122,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,24 +143,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,89 +204,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,6 +243,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -234,19 +273,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,151 +417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,15 +452,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -455,42 +467,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -513,20 +493,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -536,135 +557,138 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -986,15 +1010,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="4" max="4" width="18.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="13.7142857142857" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1004,41 +1032,82 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1235345</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>4455644</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>234555</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="rony@gmail.com"/>
+    <hyperlink ref="D3" r:id="rId2" display="Ken@gmail.com"/>
+    <hyperlink ref="D4" r:id="rId3" display="Hetal@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/ExcelFile/Employee.xlsx
+++ b/ExcelFile/Employee.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11640"/>
+    <workbookView windowWidth="15255" windowHeight="3210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:F4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>fname</t>
   </si>
@@ -69,6 +70,18 @@
   </si>
   <si>
     <t>Melborne</t>
+  </si>
+  <si>
+    <t>Steave</t>
+  </si>
+  <si>
+    <t>jhon</t>
+  </si>
+  <si>
+    <t>steave@yahoo.com</t>
+  </si>
+  <si>
+    <t>new jersy</t>
   </si>
 </sst>
 </file>
@@ -76,10 +89,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -98,6 +111,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,31 +119,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,24 +136,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,22 +150,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,14 +166,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -218,17 +233,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,187 +256,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,6 +447,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -448,6 +472,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,41 +503,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,11 +526,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,15 +552,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,130 +570,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,15 +1023,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="4" max="4" width="18.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="9.57142857142857"/>
     <col min="6" max="6" width="13.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1102,11 +1116,32 @@
         <v>17</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>78375567</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="rony@gmail.com"/>
     <hyperlink ref="D3" r:id="rId2" display="Ken@gmail.com"/>
     <hyperlink ref="D4" r:id="rId3" display="Hetal@gmail.com"/>
+    <hyperlink ref="D5" r:id="rId4" display="steave@yahoo.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/ExcelFile/Employee.xlsx
+++ b/ExcelFile/Employee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15255" windowHeight="3210"/>
+    <workbookView windowWidth="15255" windowHeight="3375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,28 +18,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>fname</t>
-  </si>
-  <si>
-    <t>lname</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>city</t>
+    <t>@Fname</t>
+  </si>
+  <si>
+    <t>@Lname</t>
+  </si>
+  <si>
+    <t>@Age</t>
+  </si>
+  <si>
+    <t>@Email</t>
+  </si>
+  <si>
+    <t>@Phone</t>
+  </si>
+  <si>
+    <t>@City</t>
   </si>
   <si>
     <t>Rony</t>
   </si>
   <si>
-    <t>Rahman</t>
+    <t>Yasin</t>
   </si>
   <si>
     <t>rony@gmail.com</t>
@@ -89,10 +89,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -111,9 +111,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,6 +134,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -150,9 +210,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,80 +241,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -262,19 +262,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,157 +376,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,11 +452,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,9 +500,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,15 +552,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -570,130 +570,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
